--- a/templates/events/pdfs/Smith300k-2019-06.xlsx
+++ b/templates/events/pdfs/Smith300k-2019-06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michal/Dropbox/Sys/will-rando/templates/events/pdfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EB4F7C-E2D7-8B40-A405-A01701963B8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD08BB5-1A6B-FD45-B25E-BEC973DDC96E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="460" windowWidth="17000" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Time and Food" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Cues!$A$1:$D$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cues!$A$1:$E$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Time and Food'!$B$5:$I$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Cues!$1:$1</definedName>
   </definedNames>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2183,7 +2183,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="6"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000Willamette Randonneurs Smith River 300k brevet
 brevet</oddHeader>
